--- a/class_schedules_fall_2018/MATHEMATICS (MATH).xlsx
+++ b/class_schedules_fall_2018/MATHEMATICS (MATH).xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="940" yWindow="3980" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="181">
   <si>
     <t>131</t>
   </si>
@@ -367,200 +372,203 @@
     <t>MTRF</t>
   </si>
   <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Calculus Ia</t>
+  </si>
+  <si>
+    <t>Calculus I</t>
+  </si>
+  <si>
+    <t>Calculus II</t>
+  </si>
+  <si>
+    <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>Multivariable Calculus</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>Differential Equations</t>
+  </si>
+  <si>
+    <t>Foundations of Analysis</t>
+  </si>
+  <si>
+    <t>Number Theory</t>
+  </si>
+  <si>
+    <t>Linear Optimization</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Honors</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research </t>
+  </si>
+  <si>
+    <t>Private Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Reading </t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>0900</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0330</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>0320pm</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>0950am</t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>0220pm</t>
+  </si>
+  <si>
+    <t>0420pm</t>
+  </si>
+  <si>
+    <t>1150am</t>
+  </si>
+  <si>
+    <t>KING</t>
+  </si>
+  <si>
+    <t>AJLC</t>
+  </si>
+  <si>
+    <t>SCTR</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>Bosch Robert</t>
+  </si>
+  <si>
+    <t>Calcut Jack</t>
+  </si>
+  <si>
+    <t>Colley</t>
+  </si>
+  <si>
+    <t>Marx Christoph</t>
+  </si>
+  <si>
+    <t>Thompson Lauren</t>
+  </si>
+  <si>
+    <t>Walsh James</t>
+  </si>
+  <si>
+    <t>Wilmer Elizabeth</t>
+  </si>
+  <si>
+    <t>Witmer Jeffrey</t>
+  </si>
+  <si>
+    <t>Woods Kevin</t>
+  </si>
+  <si>
+    <t>Young Robert</t>
+  </si>
+  <si>
+    <t>Linowitz Benjamin</t>
+  </si>
+  <si>
+    <t>Staff A&amp;S</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>A154</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>A255</t>
+  </si>
+  <si>
+    <t>Susan Jane</t>
+  </si>
+  <si>
+    <t>Balady Stephen</t>
+  </si>
+  <si>
+    <t>Dawson Colin</t>
+  </si>
+  <si>
+    <t>TBA Staff</t>
+  </si>
+  <si>
+    <t>Colley Susan Jane</t>
+  </si>
+  <si>
+    <t>Computational Algebra</t>
+  </si>
+  <si>
     <t>0230</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Calculus Ia</t>
-  </si>
-  <si>
-    <t>Calculus I</t>
-  </si>
-  <si>
-    <t>Calculus II</t>
-  </si>
-  <si>
-    <t>Discrete Mathematics</t>
-  </si>
-  <si>
-    <t>Multivariable Calculus</t>
-  </si>
-  <si>
-    <t>Linear Algebra</t>
-  </si>
-  <si>
-    <t>Differential Equations</t>
-  </si>
-  <si>
-    <t>Foundations of Analysis</t>
-  </si>
-  <si>
-    <t>Number Theory</t>
-  </si>
-  <si>
-    <t>Computational Algebra MWF</t>
-  </si>
-  <si>
-    <t>Linear Optimization</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>Honors</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research </t>
-  </si>
-  <si>
-    <t>Private Reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Reading </t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>0900</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>0130</t>
-  </si>
-  <si>
-    <t>0330</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>0320pm</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>Half</t>
-  </si>
-  <si>
-    <t>0950am</t>
-  </si>
-  <si>
-    <t>1050am</t>
-  </si>
-  <si>
-    <t>0220pm</t>
-  </si>
-  <si>
-    <t>0420pm</t>
-  </si>
-  <si>
-    <t>1150am</t>
-  </si>
-  <si>
-    <t>KING</t>
-  </si>
-  <si>
-    <t>AJLC</t>
-  </si>
-  <si>
-    <t>SCTR</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>Bosch Robert</t>
-  </si>
-  <si>
-    <t>Calcut Jack</t>
-  </si>
-  <si>
-    <t>Colley</t>
-  </si>
-  <si>
-    <t>Marx Christoph</t>
-  </si>
-  <si>
-    <t>Thompson Lauren</t>
-  </si>
-  <si>
-    <t>Walsh James</t>
-  </si>
-  <si>
-    <t>Wilmer Elizabeth</t>
-  </si>
-  <si>
-    <t>Witmer Jeffrey</t>
-  </si>
-  <si>
-    <t>Woods Kevin</t>
-  </si>
-  <si>
-    <t>Young Robert</t>
-  </si>
-  <si>
-    <t>Linowitz Benjamin</t>
-  </si>
-  <si>
-    <t>Staff A&amp;S</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>A154</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>A255</t>
-  </si>
-  <si>
-    <t>Susan Jane</t>
-  </si>
-  <si>
-    <t>Balady Stephen</t>
-  </si>
-  <si>
-    <t>Dawson Colin</t>
-  </si>
-  <si>
-    <t>TBA Staff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +580,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -609,8 +633,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -618,7 +648,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,12 +946,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1">
@@ -978,22 +1016,22 @@
         <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1019,22 +1057,22 @@
         <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1060,22 +1098,22 @@
         <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1101,22 +1139,22 @@
         <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1142,22 +1180,22 @@
         <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1183,22 +1221,22 @@
         <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" t="s">
         <v>149</v>
       </c>
-      <c r="K7" t="s">
-        <v>151</v>
-      </c>
       <c r="L7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1224,22 +1262,22 @@
         <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1265,22 +1303,22 @@
         <v>114</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1306,22 +1344,22 @@
         <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1347,22 +1385,22 @@
         <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1388,22 +1426,22 @@
         <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1429,22 +1467,22 @@
         <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1470,22 +1508,22 @@
         <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1511,22 +1549,22 @@
         <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1552,22 +1590,22 @@
         <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1590,25 +1628,25 @@
         <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1634,22 +1672,22 @@
         <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="s">
         <v>153</v>
-      </c>
-      <c r="L18" t="s">
-        <v>175</v>
-      </c>
-      <c r="M18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1675,22 +1713,22 @@
         <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1713,16 +1751,16 @@
         <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1745,16 +1783,16 @@
         <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1777,19 +1815,19 @@
         <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1812,16 +1850,16 @@
         <v>113</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1844,16 +1882,16 @@
         <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1876,16 +1914,16 @@
         <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1908,16 +1946,16 @@
         <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1940,16 +1978,16 @@
         <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1972,16 +2010,16 @@
         <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2004,16 +2042,16 @@
         <v>113</v>
       </c>
       <c r="H29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2036,16 +2074,16 @@
         <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2068,16 +2106,16 @@
         <v>113</v>
       </c>
       <c r="H31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2100,19 +2138,19 @@
         <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2135,19 +2173,19 @@
         <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2170,22 +2208,22 @@
         <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2208,19 +2246,19 @@
         <v>113</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2243,19 +2281,19 @@
         <v>113</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2278,19 +2316,19 @@
         <v>113</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2313,19 +2351,19 @@
         <v>113</v>
       </c>
       <c r="H38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2348,19 +2386,19 @@
         <v>113</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2383,19 +2421,19 @@
         <v>113</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2418,19 +2456,19 @@
         <v>113</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2453,19 +2491,19 @@
         <v>113</v>
       </c>
       <c r="H42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2488,19 +2526,19 @@
         <v>113</v>
       </c>
       <c r="H43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2523,19 +2561,19 @@
         <v>113</v>
       </c>
       <c r="H44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2558,19 +2596,19 @@
         <v>113</v>
       </c>
       <c r="H45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2593,22 +2631,22 @@
         <v>113</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2631,19 +2669,19 @@
         <v>113</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2666,19 +2704,19 @@
         <v>113</v>
       </c>
       <c r="H48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2701,19 +2739,19 @@
         <v>113</v>
       </c>
       <c r="H49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2736,19 +2774,19 @@
         <v>113</v>
       </c>
       <c r="H50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2771,19 +2809,19 @@
         <v>113</v>
       </c>
       <c r="H51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2806,19 +2844,19 @@
         <v>113</v>
       </c>
       <c r="H52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2841,19 +2879,19 @@
         <v>113</v>
       </c>
       <c r="H53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2876,19 +2914,19 @@
         <v>113</v>
       </c>
       <c r="H54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2911,19 +2949,19 @@
         <v>113</v>
       </c>
       <c r="H55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2946,19 +2984,19 @@
         <v>113</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2981,19 +3019,19 @@
         <v>113</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3016,22 +3054,22 @@
         <v>113</v>
       </c>
       <c r="H58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3054,19 +3092,19 @@
         <v>113</v>
       </c>
       <c r="H59" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3089,19 +3127,19 @@
         <v>113</v>
       </c>
       <c r="H60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3124,19 +3162,19 @@
         <v>113</v>
       </c>
       <c r="H61" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3159,19 +3197,19 @@
         <v>113</v>
       </c>
       <c r="H62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3194,19 +3232,19 @@
         <v>113</v>
       </c>
       <c r="H63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3229,19 +3267,19 @@
         <v>113</v>
       </c>
       <c r="G64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3264,19 +3302,19 @@
         <v>113</v>
       </c>
       <c r="H65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3299,19 +3337,19 @@
         <v>113</v>
       </c>
       <c r="H66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3334,19 +3372,19 @@
         <v>113</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3369,19 +3407,19 @@
         <v>113</v>
       </c>
       <c r="H68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3404,19 +3442,19 @@
         <v>113</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3439,19 +3477,19 @@
         <v>113</v>
       </c>
       <c r="H70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3474,22 +3512,22 @@
         <v>113</v>
       </c>
       <c r="H71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3512,19 +3550,19 @@
         <v>113</v>
       </c>
       <c r="H72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3547,19 +3585,19 @@
         <v>113</v>
       </c>
       <c r="H73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3582,19 +3620,19 @@
         <v>113</v>
       </c>
       <c r="H74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3617,19 +3655,19 @@
         <v>113</v>
       </c>
       <c r="H75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3652,19 +3690,19 @@
         <v>113</v>
       </c>
       <c r="H76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3687,19 +3725,19 @@
         <v>113</v>
       </c>
       <c r="H77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3722,19 +3760,19 @@
         <v>113</v>
       </c>
       <c r="H78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3757,19 +3795,19 @@
         <v>113</v>
       </c>
       <c r="H79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3792,22 +3830,28 @@
         <v>113</v>
       </c>
       <c r="H80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J80" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>